--- a/templates/PL-B-Lamp_ba.xlsx
+++ b/templates/PL-B-Lamp_ba.xlsx
@@ -570,9 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/templates/PL-B-Lamp_ba.xlsx
+++ b/templates/PL-B-Lamp_ba.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="9690" windowHeight="6495"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">                         Lampiran :</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>JUMLAH</t>
+  </si>
+  <si>
+    <t>1 berkas</t>
+  </si>
+  <si>
+    <t>#nomor#</t>
+  </si>
+  <si>
+    <t>#tanggal#</t>
   </si>
 </sst>
 </file>
@@ -570,7 +579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -585,6 +596,9 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
@@ -595,10 +609,16 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
